--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW23.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW23.xlsx
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4514883111023144</v>
+        <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.45709806755472965</v>
+        <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3703143343378377</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.45968054314219636</v>
+        <v>0.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.414481839522343</v>
+        <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4357987483692672</v>
+        <v>0.0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4293367268744549</v>
+        <v>0.0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4370801177789545</v>
+        <v>0.0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.44161905416725467</v>
+        <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.44028021633640757</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.2819732301889875</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1.2979017878571097</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>1.0514847266306757</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>1.138425486960822</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.305234568107092</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.1768956351712023</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>1.2374236838939134</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.2190751721704776</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.241062053350681</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>1.2539500834507846</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>1.2501485359544169</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -5537,37 +5537,37 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="n">
-        <v>1.2243241952323038</v>
+        <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>1.1790734617408625</v>
+        <v>0.0</v>
       </c>
       <c r="D144" t="n">
-        <v>1.2401827825095477</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.2341063668742493</v>
+        <v>0.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.2561662573855485</v>
+        <v>0.0</v>
       </c>
       <c r="G144" t="n">
-        <v>1.2054278730468937</v>
+        <v>0.0</v>
       </c>
       <c r="H144" t="n">
-        <v>1.0464560063787862</v>
+        <v>0.0</v>
       </c>
       <c r="I144" t="n">
-        <v>1.2144420524102182</v>
+        <v>0.0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.1912069243411574</v>
+        <v>0.0</v>
       </c>
       <c r="K144" t="n">
-        <v>1.0746558839791691</v>
+        <v>0.0</v>
       </c>
       <c r="L144" t="n">
-        <v>1.013977371753753</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4429589469816474</v>
+        <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5418735372457386</v>
+        <v>0.0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.44500271039624795</v>
+        <v>0.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5241234831307089</v>
+        <v>0.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4524697637410174</v>
+        <v>0.0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.530864686932508</v>
+        <v>0.0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5266274547527073</v>
+        <v>0.0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5254813518402115</v>
+        <v>0.0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5135478616006987</v>
+        <v>0.0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.4390891363072774</v>
+        <v>0.0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5049631811202128</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.20760372616874595</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2431516160447368</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.24177893239405804</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.24573333333333328</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.23304486139589037</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.20622337029065219</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.2437232464602764</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.20769259570258855</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2343179721430959</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.24232591662281253</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2563953702117809</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7513,37 +7513,37 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9910476528222409</v>
+        <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.976592340449012</v>
+        <v>0.0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9904320948844495</v>
+        <v>0.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9606690549074673</v>
+        <v>0.0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8701778841056567</v>
+        <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9470480357335521</v>
+        <v>0.0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9310299032621032</v>
+        <v>0.0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.8424289766346807</v>
+        <v>0.0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.9761651845531003</v>
+        <v>0.0</v>
       </c>
       <c r="L196" t="n">
-        <v>0.9833865566944671</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>2.006421075666364</v>
+        <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>1.9820750107148124</v>
+        <v>0.0</v>
       </c>
       <c r="D206" t="n">
-        <v>1.7227918485880396</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.702658326628689</v>
+        <v>0.0</v>
       </c>
       <c r="F206" t="n">
-        <v>2.0942658507966208</v>
+        <v>0.0</v>
       </c>
       <c r="G206" t="n">
-        <v>1.7073826302534507</v>
+        <v>0.0</v>
       </c>
       <c r="H206" t="n">
-        <v>1.8819633307259702</v>
+        <v>0.0</v>
       </c>
       <c r="I206" t="n">
-        <v>1.7681536596106198</v>
+        <v>0.0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.9328097056888203</v>
+        <v>0.0</v>
       </c>
       <c r="K206" t="n">
-        <v>1.664234130973075</v>
+        <v>0.0</v>
       </c>
       <c r="L206" t="n">
-        <v>1.9414614534608303</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.20428564153008197</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.23778556268683132</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2003517475015771</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2457333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.23572116224487466</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.22881970336847046</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.23061270436004275</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.19824002662763182</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.23287084591294793</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.20018290652724957</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.23721275112008172</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5116037046544816</v>
+        <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>0.42813677228685554</v>
+        <v>0.0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5016</v>
+        <v>0.0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4294250609515839</v>
+        <v>0.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.49606718741584654</v>
+        <v>0.0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.480597927088968</v>
+        <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>0.4164707318352205</v>
+        <v>0.0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.4958876618838676</v>
+        <v>0.0</v>
       </c>
       <c r="J224" t="n">
-        <v>0.5084456573868165</v>
+        <v>0.0</v>
       </c>
       <c r="K224" t="n">
-        <v>0.4281647639715031</v>
+        <v>0.0</v>
       </c>
       <c r="L224" t="n">
-        <v>0.4922569396062949</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>0.28758557130200524</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.28196223219788646</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.24139084678553036</v>
+        <v>0.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.2788520962597675</v>
+        <v>0.0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.27015642805359347</v>
+        <v>0.0</v>
       </c>
       <c r="H226" t="n">
-        <v>0.234108885951647</v>
+        <v>0.0</v>
       </c>
       <c r="I226" t="n">
-        <v>0.2787511803512083</v>
+        <v>0.0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.28581035189016857</v>
+        <v>0.0</v>
       </c>
       <c r="K226" t="n">
-        <v>0.24068240151093737</v>
+        <v>0.0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2767102581863857</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3731840916506823</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3930394682082361</v>
+        <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.39255182639608155</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.3836298750890226</v>
+        <v>0.0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.32038573386775554</v>
+        <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>0.3886322349170449</v>
+        <v>0.0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.3887746375287489</v>
+        <v>0.0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.37943577704050546</v>
+        <v>0.0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.36979303121578755</v>
+        <v>0.0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3810564500539983</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.061006430722268</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.0133333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.0066123633209467</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9809635875413022</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.0354348509496456</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.0151602566668954</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>0.9113498101257577</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>0.8709321370509258</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>0.8498537640416386</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.011379309494875</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>0.969148781946329</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9122856595469446</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9236208375332683</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>0.7482640157754248</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.9288390356275309</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>0.8375096963544252</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>0.8805830379420244</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>0.8675257573958058</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>0.8831721967492278</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>0.8923436558431126</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>0.8896383752776896</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>6.066530951569553</v>
+        <v>0.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5.904472654385512</v>
+        <v>0.0</v>
       </c>
       <c r="D430" t="n">
-        <v>6.240332378490458</v>
+        <v>0.0</v>
       </c>
       <c r="E430" t="n">
-        <v>6.101615410223724</v>
+        <v>0.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5.7704653816516815</v>
+        <v>0.0</v>
       </c>
       <c r="G430" t="n">
-        <v>6.031437088546705</v>
+        <v>0.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5.938837207064894</v>
+        <v>0.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5.115393222116085</v>
+        <v>0.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5.364983125279384</v>
+        <v>0.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5.941940404690357</v>
+        <v>0.0</v>
       </c>
       <c r="L430" t="n">
-        <v>6.083516415065566</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -18761,37 +18761,37 @@
         <v>491.0</v>
       </c>
       <c r="B492" t="n">
-        <v>0.37711234524700527</v>
+        <v>0.0</v>
       </c>
       <c r="C492" t="n">
-        <v>0.3971767257683228</v>
+        <v>0.0</v>
       </c>
       <c r="D492" t="n">
-        <v>0.39668395088446134</v>
+        <v>0.0</v>
       </c>
       <c r="E492" t="n">
-        <v>0.39679999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="F492" t="n">
-        <v>0.387668084300486</v>
+        <v>0.0</v>
       </c>
       <c r="G492" t="n">
-        <v>0.3237582152768898</v>
+        <v>0.0</v>
       </c>
       <c r="H492" t="n">
-        <v>0.3927231005477506</v>
+        <v>0.0</v>
       </c>
       <c r="I492" t="n">
-        <v>0.3928670021343147</v>
+        <v>0.0</v>
       </c>
       <c r="J492" t="n">
-        <v>0.3834298378514581</v>
+        <v>0.0</v>
       </c>
       <c r="K492" t="n">
-        <v>0.3736855894391116</v>
+        <v>0.0</v>
       </c>
       <c r="L492" t="n">
-        <v>0.3850675705808825</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="493">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>3.360066158262905</v>
+        <v>0.0</v>
       </c>
       <c r="C550" t="n">
-        <v>3.8159874262045275</v>
+        <v>0.0</v>
       </c>
       <c r="D550" t="n">
-        <v>3.634745300027014</v>
+        <v>0.0</v>
       </c>
       <c r="E550" t="n">
-        <v>3.7221684115950118</v>
+        <v>0.0</v>
       </c>
       <c r="F550" t="n">
-        <v>3.135691788260047</v>
+        <v>0.0</v>
       </c>
       <c r="G550" t="n">
-        <v>3.2524677649002327</v>
+        <v>0.0</v>
       </c>
       <c r="H550" t="n">
-        <v>3.2801803363618958</v>
+        <v>0.0</v>
       </c>
       <c r="I550" t="n">
-        <v>3.8237548564647623</v>
+        <v>0.0</v>
       </c>
       <c r="J550" t="n">
-        <v>3.825817899020817</v>
+        <v>0.0</v>
       </c>
       <c r="K550" t="n">
-        <v>3.713513019375775</v>
+        <v>0.0</v>
       </c>
       <c r="L550" t="n">
-        <v>3.7808434640338886</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>0.6326623673362423</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.7409928514647982</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>0.7368096640814644</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>0.7488605106910527</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.7101930029253342</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>0.628455799208985</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>0.7427348676540584</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>0.6329331929649654</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>0.7140727466759524</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>0.7384765722022663</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>0.7813525551096682</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.39040882239014035</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.37997963485821096</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.4015937336607836</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.37135565816421695</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.3881503728997728</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.38219114991527176</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.32919878920129</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.3452610331677931</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.3823908547779474</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.39150191411820834</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>0.5433932132888347</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>0.45473989790043756</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>0.5327679086486691</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>0.4561082369308265</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.5268913038053588</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>0.5104608303749502</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>0.4423489649386585</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>0.5267006230991756</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>0.5400389345045293</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>0.45476962890380523</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>0.5228442987078149</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>3.491593884359433</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>3.3347097312837883</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>3.3125921482864475</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>3.2281863369168127</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>3.407442112077792</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>3.3407218289996488</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>2.999099092529602</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>2.866091321754778</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>2.796725937945206</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>3.328279367162801</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>3.1893057969259084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
